--- a/Games.xlsx
+++ b/Games.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frikolivier/vs/sisu_games/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5C8B71-3668-DB4B-86FF-E757D7183E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9490FE73-BB3A-1748-8406-F2D2A05F50BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{6ABC6779-3DB8-CB41-9C3F-5C3AE42980D0}"/>
+    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{6ABC6779-3DB8-CB41-9C3F-5C3AE42980D0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Games" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="REQ-007 Liar's Dice SP" sheetId="3" r:id="rId4"/>
+    <sheet name="REQ-008 Liar's Dice MP" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="279">
   <si>
     <t>Game</t>
   </si>
@@ -306,13 +310,3301 @@
   </si>
   <si>
     <t>Medium: Sailor betting classic; pegs fit ship life. Logic for combinations in logic.dart; UI with peg animation.</t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Expected Behavior/Outcome</t>
+  </si>
+  <si>
+    <t>REQ-001</t>
+  </si>
+  <si>
+    <t>Verify current project status and folder structure</t>
+  </si>
+  <si>
+    <t>As a developer, I want to confirm the existing project setup and file organization to ensure a solid foundation for development.</t>
+  </si>
+  <si>
+    <r>
+      <t>The project directory (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Users/frikolivier/vs/sisu_games/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) is reviewed using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ls -R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, confirming the presence of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>android/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ios/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>pubspec.yaml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and other standard Flutter files. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> folder contains </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>common/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>poker/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>liars_dice/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>solitaire/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>main.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> includes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>fonts/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>common/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>games/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>icon/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with expected assets (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NotoSansRunic-Regular.ttf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>longship_background.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>icon.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). No critical files are missing, and the structure aligns with the modular monorepo design.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-002</t>
+  </si>
+  <si>
+    <t>Set up Viking-themed visual identity</t>
+  </si>
+  <si>
+    <t>As a designer, I want a consistent Viking aesthetic to immerse users in a Norse seafarer experience.</t>
+  </si>
+  <si>
+    <r>
+      <t>The app uses a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ThemeData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/theme.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>primaryColor: Colors.blueGrey[800]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>scaffoldBackgroundColor: Colors.grey[900]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>cardColor: Colors.brown[900]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and a runic font (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>RuneFont</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/fonts/NotoSansRunic-Regular.ttf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). UI elements (buttons, cards) feature weathered wood and rune motifs, verified by launching the app and inspecting the opening screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-003</t>
+  </si>
+  <si>
+    <t>Implement opening screen with game selection</t>
+  </si>
+  <si>
+    <t>As a user, I want an intuitive starting screen to choose my game and mode.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/opening_screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>GridView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> of game icons (Poker, Liar's Dice, Solitaire) on a Viking longship deck background (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/common/longship_background.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Tapping an icon navigates to the respective game screen, and a Viking axe-styled toggle (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SwitchListTile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) switches between single-player and multiplayer modes, confirmed by user interaction and navigation.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-004</t>
+  </si>
+  <si>
+    <t>Enable full-screen mode with system bar overlay</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to utilize the entire screen for an immersive experience without overlap issues.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>main.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SystemChrome.setEnabledSystemUIMode(SystemUiMode.edgeToEdge)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>setSystemUIOverlayStyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with transparent colors and light icons. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>opening_screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>extendBodyBehindAppBar: true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>extendBody: true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ensuring the Viking background fills the screen behind status and navigation bars, verified by launching on SM S928U1 with no content obscured.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005</t>
+  </si>
+  <si>
+    <t>Implement Poker game with single-player mode</t>
+  </si>
+  <si>
+    <t>As a player, I want to play Poker against an AI to practice my skills.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with a Viking-themed table and cards. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> initializes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class with a shuffled deck (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>VikingSuit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and AI opponents using rule-based betting (e.g., fold on weak hands). Users can deal, bet, and fold, with outcomes displayed, confirmed by a playable single-player session.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006</t>
+  </si>
+  <si>
+    <t>Implement Poker game with multiplayer mode</t>
+  </si>
+  <si>
+    <t>As a player, I want to play Poker with friends over local WiFi for a social experience.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> supports networked play where the host deals cards via </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>web_socket_channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and players send bets/actions. Turns pass with a raven animation, and verbal bluffing occurs off-app. Multi-device sync is verified by connecting two devices on the same WiFi, with successful turn transitions.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-007</t>
+  </si>
+  <si>
+    <t>Implement Liar's Dice game with single-player mode</t>
+  </si>
+  <si>
+    <t>As a player, I want to play Liar's Dice against an AI to test my bluffing skills.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> shows a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with a campfire circle and dice. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handles hidden dice rolls and AI bidding based on probability, allowing users to bid and challenge, confirmed by a playable single-player round.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008</t>
+  </si>
+  <si>
+    <t>Implement Liar's Dice game with multiplayer mode</t>
+  </si>
+  <si>
+    <t>As a player, I want to play Liar's Dice with friends over local WiFi for group fun.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> syncs turns via WebSocket, with players rolling privately and announcing bids verbally. Challenges reveal dice, synced across devices, verified by multiplayer testing with turn passing and bluff resolution.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-009</t>
+  </si>
+  <si>
+    <t>Implement Solitaire game with single-player mode</t>
+  </si>
+  <si>
+    <t>As a player, I want to play Solitaire to relax during downtime.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/solitaire/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with a shield-layout board. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/solitaire/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> manages card arrangement and offers AI hints, confirmed by a playable single-player game with valid moves.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-010</t>
+  </si>
+  <si>
+    <t>Implement Solitaire game with multiplayer mode</t>
+  </si>
+  <si>
+    <t>As a player, I want to compete in Solitaire races with friends over local WiFi.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/solitaire/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> syncs scores and timed races via WebSocket, with a shared "ghost" play for comparison, verified by multi-device score updates.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-011</t>
+  </si>
+  <si>
+    <t>Add Backgammon (Hnefatafl) game support</t>
+  </si>
+  <si>
+    <t>As a player, I want to play a strategic Viking game like Backgammon.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/backgammon/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> shows a rune-carved shield board, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/backgammon/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> validates moves, confirmed by a navigable screen from the opening grid.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-012</t>
+  </si>
+  <si>
+    <t>Add Checkers (Viking Chess) game support</t>
+  </si>
+  <si>
+    <t>As a player, I want to play a tactical game like Checkers with a Viking twist.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/checkers/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays a plank-wood board, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/checkers/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> handles jumps, confirmed by navigation and basic play.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-013</t>
+  </si>
+  <si>
+    <t>Add Yatzy (Viking Dice Game) game support</t>
+  </si>
+  <si>
+    <t>As a player, I want to enjoy a dice game like Yatzy with a Norse flair.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/yatzy/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> shows a Viking tablet scorecard, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/yatzy/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> scores rolls, confirmed by a playable screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-014</t>
+  </si>
+  <si>
+    <t>Add Uno game support</t>
+  </si>
+  <si>
+    <t>As a player, I want to play a fast card game like Uno with a Viking theme.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/uno/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays rune-tiled cards, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/uno/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> manages matches, confirmed by navigation.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-015</t>
+  </si>
+  <si>
+    <t>Add Knucklebones (Viking Bone Game) game support</t>
+  </si>
+  <si>
+    <t>As a player, I want to try a unique bone-tossing game.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/knucklebones/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> shows a ship deck, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/knucklebones/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> scores throws, confirmed by a basic screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-016</t>
+  </si>
+  <si>
+    <t>Add Cribbage (Adapted with Pegs) game support</t>
+  </si>
+  <si>
+    <t>As a player, I want to play a peg-based card game with a Viking twist.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/cribbage/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays a rune plank board, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/cribbage/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> counts combinations, confirmed by navigation.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-017</t>
+  </si>
+  <si>
+    <t>Implement multiplayer discovery and session creation</t>
+  </si>
+  <si>
+    <t>As a host, I want to create and join multiplayer sessions easily.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multicast_dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> for discovery and generates a game ID with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, joined via QR code or IP, confirmed by successful device connections.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-018</t>
+  </si>
+  <si>
+    <t>Add animations for turn passing</t>
+  </si>
+  <si>
+    <t>As a player, I want visual feedback when turns change in multiplayer.</t>
+  </si>
+  <si>
+    <t>The app displays a raven flight animation between devices during turn transitions, synced via WebSocket, verified by multi-device play.</t>
+  </si>
+  <si>
+    <t>REQ-019</t>
+  </si>
+  <si>
+    <t>Add sound effects and haptic feedback</t>
+  </si>
+  <si>
+    <t>As a player, I want audio and tactile feedback to enhance immersion.</t>
+  </si>
+  <si>
+    <t>The app includes Viking horn sounds for wins, dice rattles for rolls, and haptic feedback on bets, confirmed by user interaction.</t>
+  </si>
+  <si>
+    <t>REQ-020</t>
+  </si>
+  <si>
+    <t>Ensure cross-platform compatibility</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to work seamlessly on Android and iOS.</t>
+  </si>
+  <si>
+    <t>The app builds and runs without errors on Android (API 36) and iOS (13.0+), verified by testing on SM S928U1 and iOS simulator.</t>
+  </si>
+  <si>
+    <t>Sub-Requirement ID</t>
+  </si>
+  <si>
+    <t>REQ-007-001</t>
+  </si>
+  <si>
+    <t>Design Viking-themed Liar's Dice UI</t>
+  </si>
+  <si>
+    <t>As a player, I want a visually appealing interface that reflects the Viking theme.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> renders a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> using a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DecorationImage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/common/longship_background.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (or a campfire-specific asset). The UI includes a dice cup (horn) with 5 rune-etched bone dice, a bid input field, and a challenge button, styled with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Theme.of(context).cardColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(brown[900]) and runic text (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>bodyLarge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), verified by launching the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-007-002</t>
+  </si>
+  <si>
+    <t>Implement dice rolling logic</t>
+  </si>
+  <si>
+    <t>As a player, I want to roll dice to start each turn.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LiarDiceLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class with a method to roll 5 dice (random values 1-6), storing results privately. The screen updates to show the cup with an animation (e.g., shake), confirmed by a successful roll on tap.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-007-003</t>
+  </si>
+  <si>
+    <t>Enable user bidding</t>
+  </si>
+  <si>
+    <t>As a player, I want to place bids on the total number and face of dice.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> supports a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>bid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method accepting quantity and face (e.g., "5 fours"), and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> provides a text input or dropdown for bids. Users can submit a bid, updating the game state, verified by a valid bid being accepted.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-007-004</t>
+  </si>
+  <si>
+    <t>Implement AI bidding logic</t>
+  </si>
+  <si>
+    <t>As a player, I want an AI opponent to bid intelligently.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LiarDiceLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>aiBid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method using probability-based logic (e.g., based on hidden dice totals), making a bid after the user. The screen displays the AI's bid, confirmed by a realistic AI turn following the user's bid.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-007-005</t>
+  </si>
+  <si>
+    <t>Add challenge mechanic</t>
+  </si>
+  <si>
+    <t>As a player, I want to challenge the AI's bid to test my bluffing skills.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>challenge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method that compares the user's and AI's dice totals. If the challenge succeeds (total matches or exceeds bid), the AI loses a die; otherwise, the user loses a die. The screen reveals all dice and updates the count, verified by a correct outcome after a challenge.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-007-006</t>
+  </si>
+  <si>
+    <t>Manage game state and win condition</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to track progress and end when someone wins.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LiarDiceLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> tracks dice counts (5 per player initially) and ends when one reaches 0, declaring the last player standing the winner. The screen displays the current dice count and a win message (e.g., "Victory!" with a Viking horn sound), confirmed by a complete game round.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-007-007</t>
+  </si>
+  <si>
+    <t>Integrate with existing theme</t>
+  </si>
+  <si>
+    <t>As a designer, I want the Liar's Dice screen to match the app's Viking aesthetic.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Theme.of(context)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> for colors (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>cardColor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>textTheme.bodyLarge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and the runic font (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>RuneFont</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). The UI includes Viking motifs (e.g., horn cup, rune dice), verified by visual consistency with the opening screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-001</t>
+  </si>
+  <si>
+    <t>Set up multiplayer networking infrastructure for Liar's Dice</t>
+  </si>
+  <si>
+    <t>As a developer, I want a robust networking setup to enable multiplayer Liar's Dice over local WiFi.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> file initializes a WebSocket server using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>web_socket_channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> for the host and clients. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multicast_dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> discovers devices, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>network_info_plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provides local IP addresses. A successful connection between at least two devices on the same WiFi is verified by a log message or UI indicator.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-002</t>
+  </si>
+  <si>
+    <t>Create a session ID and join mechanism</t>
+  </si>
+  <si>
+    <t>As a host, I want to create a unique session and allow others to join easily.</t>
+  </si>
+  <si>
+    <r>
+      <t>The host generates a unique session ID using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and broadcasts it via </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multicast_dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Clients join by scanning a QR code (generated with a package like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>qr_flutter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) or entering the IP, confirmed by a joined player list in the UI on the host device.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-003</t>
+  </si>
+  <si>
+    <t>Synchronize dice rolls across devices</t>
+  </si>
+  <si>
+    <t>As a player, I want my dice rolls to be hidden and synced with others for fair play.</t>
+  </si>
+  <si>
+    <r>
+      <t>Each player rolls dice privately on their device, sending the roll count (not values) via WebSocket. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> aggregates total dice, verified by matching counts across devices without revealing individual rolls.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-004</t>
+  </si>
+  <si>
+    <t>Implement turn-based bidding system</t>
+  </si>
+  <si>
+    <t>As a player, I want to take turns bidding on dice totals in a structured way.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> manages turn order, passing via WebSocket when a player submits a bid (e.g., "5 fours"). The current player’s turn is highlighted with a raven animation, confirmed by sequential turn changes on multi-device play.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-005</t>
+  </si>
+  <si>
+    <t>Add bluff challenge mechanic</t>
+  </si>
+  <si>
+    <t>As a player, I want to challenge others' bids to add strategy.</t>
+  </si>
+  <si>
+    <r>
+      <t>Players can challenge a bid using a UI button, triggering </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to reveal all dice via WebSocket. The challenger wins if the bid is false; the bidder loses a die otherwise, verified by updated dice counts and a thunderclap sound effect.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-006</t>
+  </si>
+  <si>
+    <t>Handle game state and win condition</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to end when someone wins and reflect the outcome.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> tracks dice loss; the last player with dice wins. The game state (dice counts, turn) syncs across devices, and a win screen with Viking horn sound is displayed, confirmed by a multiplayer game ending correctly.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-007</t>
+  </si>
+  <si>
+    <t>Integrate verbal bidding off-app</t>
+  </si>
+  <si>
+    <t>As a player, I want to announce bids verbally for an authentic experience.</t>
+  </si>
+  <si>
+    <t>The app prompts players to speak bids aloud (e.g., via a text hint), with WebSocket syncing only the challenge action. Verbal interaction is verified by successful gameplay without app-enforced speech recognition.</t>
+  </si>
+  <si>
+    <t>REQ-008-008</t>
+  </si>
+  <si>
+    <t>Add visual feedback for turn passing</t>
+  </si>
+  <si>
+    <t>As a player, I want to see when my turn changes to another device.</t>
+  </si>
+  <si>
+    <t>A raven flight animation transitions between devices during turn changes, synced via WebSocket, verified by visible animation on all connected devices.</t>
+  </si>
+  <si>
+    <t>REQ-008-009</t>
+  </si>
+  <si>
+    <t>Ensure multi-device synchronization stability</t>
+  </si>
+  <si>
+    <t>As a user, I want a smooth multiplayer experience without desyncs.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> handles WebSocket reconnection and state reconciliation. A test with three devices maintains consistent dice counts and turn order, confirmed by no desync errors over a 10-minute session.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-010</t>
+  </si>
+  <si>
+    <t>Test multiplayer mode on multiple devices</t>
+  </si>
+  <si>
+    <t>As a tester, I want to verify multiplayer functionality across devices.</t>
+  </si>
+  <si>
+    <t>The app is tested with 2–4 devices on the same WiFi, covering connection, turn passing, bidding, and challenges. All actions sync correctly, and no crashes occur, verified by a test report.</t>
+  </si>
+  <si>
+    <t>REQ-005-001</t>
+  </si>
+  <si>
+    <t>Define Poker game logic structure</t>
+  </si>
+  <si>
+    <t>As a developer, I want a structured logic class for Poker to manage game state and rules.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> file contains a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>VikingSuit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (axes, shields, ravens, ships) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (two through ace) enums, a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class, and a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>deck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> list initialized with 52 cards. The deck is shuffled on instantiation, verified by logging the deck size (52) and random order.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-002</t>
+  </si>
+  <si>
+    <t>Implement basic card dealing for single-player</t>
+  </si>
+  <si>
+    <t>As a player, I want to be dealt cards to start a Poker game against an AI.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>dealCards()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method that distributes 2 hole cards to the player and AI, returning a map (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{player: [Card], ai: [Card]}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays these cards on a Viking-themed table, confirmed by seeing 2 cards each on screen after a deal button press.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-003</t>
+  </si>
+  <si>
+    <t>Add community card dealing</t>
+  </si>
+  <si>
+    <t>As a player, I want community cards to be dealt during the game for hand evaluation.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>dealCommunityCards()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method that deals 3 flop cards, 1 turn card, and 1 river card in sequence, updating the game state. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> updates the UI to show 5 community cards after simulated betting rounds, verified by visual progression.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-004</t>
+  </si>
+  <si>
+    <t>Implement AI opponent logic</t>
+  </si>
+  <si>
+    <t>As a player, I want an AI opponent to make reasonable betting decisions.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>aiDecision()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method using rule-based logic (e.g., fold on weak hands &lt; 10% win probability, call/bet on strong hands &gt; 50%), updated per round. The AI’s actions (fold, call, raise) are displayed in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, confirmed by consistent AI behavior over multiple games.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-005</t>
+  </si>
+  <si>
+    <t>Create basic UI for Poker gameplay</t>
+  </si>
+  <si>
+    <t>As a player, I want a user interface to interact with the Poker game.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> implements a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scaffold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with a Viking plank-wood table background (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>assets/common/longship_background.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), displaying player/AI cards, community cards, and buttons for deal, bet, call, fold. The UI is responsive, verified by launching on SM S928U1.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-006</t>
+  </si>
+  <si>
+    <t>Add betting and folding mechanics</t>
+  </si>
+  <si>
+    <t>As a player, I want to bet, call, or fold during the game.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class tracks a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>pot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and player/AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>chips</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with methods for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>bet(amount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>call()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>fold()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> includes buttons triggering these actions, updating the UI with chip counts and pot value, confirmed by successful bet/fold cycles.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-007</t>
+  </si>
+  <si>
+    <t>Determine and display game outcome</t>
+  </si>
+  <si>
+    <t>As a player, I want to know the winner after each round.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluateHand()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method to compare player and AI hands (e.g., high card, pair, flush) using a ranking system. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays the winner (player or AI) with a northern lights animation, verified by correct outcomes after betting.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-008</t>
+  </si>
+  <si>
+    <t>Integrate Viking-themed assets and effects</t>
+  </si>
+  <si>
+    <t>As a player, I want a Viking aesthetic to enhance the Poker experience.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> uses rune-suited cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>VikingSuit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), a longship table, and gold coin animations for bets. Sound effects (e.g., coin clink) and haptic feedback on bets are included, confirmed by visual/audio/tactile feedback during play.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-009</t>
+  </si>
+  <si>
+    <t>Ensure single-player mode stability</t>
+  </si>
+  <si>
+    <t>As a developer, I want the single-player mode to be bug-free and performant.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> are tested with unit tests (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>test/games/poker/poker_logic_test.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and integration tests, achieving 100% coverage for deal, bet, and outcome logic. Performance targets 60 FPS, verified by profiling on SM S928U1.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +3619,27 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,12 +3662,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,11 +4012,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16162D85-A664-3348-BBB2-05EB00E71E90}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="76" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1008,4 +4327,795 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800442E2-B1B7-6B48-BC44-C101F164731E}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="136.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="86" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB1DF73-0D7F-E642-8AA3-0F827D6DFBC9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33" style="2" customWidth="1"/>
+    <col min="4" max="4" width="80.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="70" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="70" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4935D0-3D2F-2B47-BCB3-A59896FEFE42}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="81.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="88" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844B5A0F-E20C-1645-8C60-63406D791014}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="70" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Games.xlsx
+++ b/Games.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frikolivier/vs/sisu_games/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9490FE73-BB3A-1748-8406-F2D2A05F50BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785A8D4-5E3D-8744-B514-A6F8A789E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{6ABC6779-3DB8-CB41-9C3F-5C3AE42980D0}"/>
+    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{6ABC6779-3DB8-CB41-9C3F-5C3AE42980D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
     <sheet name="Requirements" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="REQ-007 Liar's Dice SP" sheetId="3" r:id="rId4"/>
-    <sheet name="REQ-008 Liar's Dice MP" sheetId="4" r:id="rId5"/>
+    <sheet name="REQ-005 Poker Game SP" sheetId="5" r:id="rId3"/>
+    <sheet name="REQ-006 Poker Game MP" sheetId="6" r:id="rId4"/>
+    <sheet name="REQ-007 Liar's Dice SP" sheetId="3" r:id="rId5"/>
+    <sheet name="REQ-008 Liar's Dice MP" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="319">
   <si>
     <t>Game</t>
   </si>
@@ -3597,6 +3598,486 @@
         <scheme val="minor"/>
       </rPr>
       <t>) and integration tests, achieving 100% coverage for deal, bet, and outcome logic. Performance targets 60 FPS, verified by profiling on SM S928U1.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-001</t>
+  </si>
+  <si>
+    <t>Set up multiplayer network infrastructure</t>
+  </si>
+  <si>
+    <t>As a developer, I want a robust network setup to enable Poker multiplayer over local WiFi.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multicast_dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for device discovery and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>web_socket_channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> for real-time communication. A host device broadcasts availability, and clients join via a unique session ID generated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, verified by successful connection logs on two devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-002</t>
+  </si>
+  <si>
+    <t>Implement host card dealing mechanism</t>
+  </si>
+  <si>
+    <t>As a host, I want to deal cards to all players to start a Poker game.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to distribute 2 hole cards per player and 5 community cards via WebSocket. The host shuffles the deck and sends card data (e.g., JSON with suit/rank) to connected devices, confirmed by all players receiving identical card sets.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-003</t>
+  </si>
+  <si>
+    <t>Enable player betting and action synchronization</t>
+  </si>
+  <si>
+    <t>As a player, I want to place bets and take actions (fold, call, raise) that are reflected across all devices.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> includes buttons for betting actions, sending updates via WebSocket to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. All devices display the current bet pool and player actions in real-time, verified by synchronized UI updates during a multi-device game.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-004</t>
+  </si>
+  <si>
+    <t>Manage turn passing with animation</t>
+  </si>
+  <si>
+    <t>As a player, I want to see whose turn it is with a visual cue to enhance the multiplayer experience.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> triggers a raven flight animation (using a custom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AnimationController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) when a turn passes, synced via WebSocket. The animation moves between player avatars (Viking helmets), confirmed by smooth transitions on all devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-005</t>
+  </si>
+  <si>
+    <t>Support verbal bluffing off-app</t>
+  </si>
+  <si>
+    <t>As a player, I want to use verbal communication for bluffing to add a social element without app modification.</t>
+  </si>
+  <si>
+    <t>The app design allows players to announce bluffs verbally during their turn, with no in-app text input required. Multiplayer sessions rely on off-app communication, verified by successful gameplay where bluffing impacts strategy without technical intervention.</t>
+  </si>
+  <si>
+    <t>REQ-006-006</t>
+  </si>
+  <si>
+    <t>Handle multi-device state consistency</t>
+  </si>
+  <si>
+    <t>As a player, I want the game state to remain consistent across all devices to ensure fair play.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> syncs game state (e.g., current player, pot, cards) using JSON serialization with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>json_annotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. State updates are broadcast on each action, confirmed by identical displays on all devices after a full round.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-007</t>
+  </si>
+  <si>
+    <t>Provide session creation and joining</t>
+  </si>
+  <si>
+    <t>As a host or client, I want an easy way to create or join a Poker game session.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> generates a session ID (QR code or IP display) on the host device. Clients scan the QR or enter the IP using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>network_info_plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, verified by a successful join message and game start on both devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-008</t>
+  </si>
+  <si>
+    <t>Ensure turn-based gameplay flow</t>
+  </si>
+  <si>
+    <t>As a player, I want turns to progress smoothly to maintain game pace in multiplayer.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> manages turn order (e.g., clockwise after the dealer), synced via WebSocket. Each player’s turn is highlighted with a Viking shield icon, confirmed by orderly turn progression across devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-009</t>
+  </si>
+  <si>
+    <t>Handle disconnection and reconnection</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to handle temporary disconnections gracefully.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> implements a reconnection mechanism with WebSocket, resyncing the last known state. Disconnected players can rejoin with the session ID, verified by resuming play without data loss after a simulated disconnect.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-010</t>
+  </si>
+  <si>
+    <t>Validate multiplayer game end conditions</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to end properly when a winner is determined.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> detects win conditions (e.g., all-in, fold-out) and broadcasts the result via WebSocket. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays a win animation (northern lights), confirmed by a consistent end state on all devices.</t>
     </r>
   </si>
 </sst>
@@ -4650,8 +5131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB1DF73-0D7F-E642-8AA3-0F827D6DFBC9}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4705,7 +5186,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>251</v>
       </c>
@@ -4775,7 +5256,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>271</v>
       </c>
@@ -4789,7 +5270,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>275</v>
       </c>
@@ -4805,10 +5286,188 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50965960-9350-D746-A35F-2394025ED0B5}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="96.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="53" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4935D0-3D2F-2B47-BCB3-A59896FEFE42}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -4943,7 +5602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844B5A0F-E20C-1645-8C60-63406D791014}">
   <dimension ref="A1:D11"/>
   <sheetViews>

--- a/Games.xlsx
+++ b/Games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frikolivier/vs/sisu_games/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785A8D4-5E3D-8744-B514-A6F8A789E155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD5B29-717C-004E-88C1-D0C99A38FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{6ABC6779-3DB8-CB41-9C3F-5C3AE42980D0}"/>
+    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{6ABC6779-3DB8-CB41-9C3F-5C3AE42980D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="320">
   <si>
     <t>Game</t>
   </si>
@@ -1954,10 +1954,31 @@
     <t>REQ-007-001</t>
   </si>
   <si>
-    <t>Design Viking-themed Liar's Dice UI</t>
-  </si>
-  <si>
-    <t>As a player, I want a visually appealing interface that reflects the Viking theme.</t>
+    <t>REQ-007-002</t>
+  </si>
+  <si>
+    <t>REQ-007-003</t>
+  </si>
+  <si>
+    <t>REQ-007-004</t>
+  </si>
+  <si>
+    <t>REQ-007-005</t>
+  </si>
+  <si>
+    <t>REQ-007-006</t>
+  </si>
+  <si>
+    <t>REQ-007-007</t>
+  </si>
+  <si>
+    <t>REQ-008-001</t>
+  </si>
+  <si>
+    <t>Set up multiplayer networking infrastructure for Liar's Dice</t>
+  </si>
+  <si>
+    <t>As a developer, I want a robust networking setup to enable multiplayer Liar's Dice over local WiFi.</t>
   </si>
   <si>
     <r>
@@ -1970,17 +1991,739 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>lib/games/liars_dice/screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> renders a </t>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> file initializes a WebSocket server using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>web_socket_channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> for the host and clients. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multicast_dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> discovers devices, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>network_info_plus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provides local IP addresses. A successful connection between at least two devices on the same WiFi is verified by a log message or UI indicator.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-002</t>
+  </si>
+  <si>
+    <t>Create a session ID and join mechanism</t>
+  </si>
+  <si>
+    <t>As a host, I want to create a unique session and allow others to join easily.</t>
+  </si>
+  <si>
+    <r>
+      <t>The host generates a unique session ID using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and broadcasts it via </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multicast_dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Clients join by scanning a QR code (generated with a package like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>qr_flutter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) or entering the IP, confirmed by a joined player list in the UI on the host device.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-003</t>
+  </si>
+  <si>
+    <t>Synchronize dice rolls across devices</t>
+  </si>
+  <si>
+    <t>As a player, I want my dice rolls to be hidden and synced with others for fair play.</t>
+  </si>
+  <si>
+    <r>
+      <t>Each player rolls dice privately on their device, sending the roll count (not values) via WebSocket. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> aggregates total dice, verified by matching counts across devices without revealing individual rolls.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-004</t>
+  </si>
+  <si>
+    <t>Implement turn-based bidding system</t>
+  </si>
+  <si>
+    <t>As a player, I want to take turns bidding on dice totals in a structured way.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> manages turn order, passing via WebSocket when a player submits a bid (e.g., "5 fours"). The current player’s turn is highlighted with a raven animation, confirmed by sequential turn changes on multi-device play.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-005</t>
+  </si>
+  <si>
+    <t>Add bluff challenge mechanic</t>
+  </si>
+  <si>
+    <t>As a player, I want to challenge others' bids to add strategy.</t>
+  </si>
+  <si>
+    <r>
+      <t>Players can challenge a bid using a UI button, triggering </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to reveal all dice via WebSocket. The challenger wins if the bid is false; the bidder loses a die otherwise, verified by updated dice counts and a thunderclap sound effect.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-006</t>
+  </si>
+  <si>
+    <t>Handle game state and win condition</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to end when someone wins and reflect the outcome.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/liars_dice/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> tracks dice loss; the last player with dice wins. The game state (dice counts, turn) syncs across devices, and a win screen with Viking horn sound is displayed, confirmed by a multiplayer game ending correctly.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-007</t>
+  </si>
+  <si>
+    <t>Integrate verbal bidding off-app</t>
+  </si>
+  <si>
+    <t>As a player, I want to announce bids verbally for an authentic experience.</t>
+  </si>
+  <si>
+    <t>The app prompts players to speak bids aloud (e.g., via a text hint), with WebSocket syncing only the challenge action. Verbal interaction is verified by successful gameplay without app-enforced speech recognition.</t>
+  </si>
+  <si>
+    <t>REQ-008-008</t>
+  </si>
+  <si>
+    <t>Add visual feedback for turn passing</t>
+  </si>
+  <si>
+    <t>As a player, I want to see when my turn changes to another device.</t>
+  </si>
+  <si>
+    <t>A raven flight animation transitions between devices during turn changes, synced via WebSocket, verified by visible animation on all connected devices.</t>
+  </si>
+  <si>
+    <t>REQ-008-009</t>
+  </si>
+  <si>
+    <t>Ensure multi-device synchronization stability</t>
+  </si>
+  <si>
+    <t>As a user, I want a smooth multiplayer experience without desyncs.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> handles WebSocket reconnection and state reconciliation. A test with three devices maintains consistent dice counts and turn order, confirmed by no desync errors over a 10-minute session.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-008-010</t>
+  </si>
+  <si>
+    <t>Test multiplayer mode on multiple devices</t>
+  </si>
+  <si>
+    <t>As a tester, I want to verify multiplayer functionality across devices.</t>
+  </si>
+  <si>
+    <t>The app is tested with 2–4 devices on the same WiFi, covering connection, turn passing, bidding, and challenges. All actions sync correctly, and no crashes occur, verified by a test report.</t>
+  </si>
+  <si>
+    <t>REQ-005-001</t>
+  </si>
+  <si>
+    <t>Define Poker game logic structure</t>
+  </si>
+  <si>
+    <t>As a developer, I want a structured logic class for Poker to manage game state and rules.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> file contains a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>VikingSuit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (axes, shields, ravens, ships) and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (two through ace) enums, a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class, and a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>deck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> list initialized with 52 cards. The deck is shuffled on instantiation, verified by logging the deck size (52) and random order.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-002</t>
+  </si>
+  <si>
+    <t>Implement basic card dealing for single-player</t>
+  </si>
+  <si>
+    <t>As a player, I want to be dealt cards to start a Poker game against an AI.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>dealCards()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method that distributes 2 hole cards to the player and AI, returning a map (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>{player: [Card], ai: [Card]}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> displays these cards on a Viking-themed table, confirmed by seeing 2 cards each on screen after a deal button press.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-003</t>
+  </si>
+  <si>
+    <t>Add community card dealing</t>
+  </si>
+  <si>
+    <t>As a player, I want community cards to be dealt during the game for hand evaluation.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>dealCommunityCards()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method that deals 3 flop cards, 1 turn card, and 1 river card in sequence, updating the game state. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> updates the UI to show 5 community cards after simulated betting rounds, verified by visual progression.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-004</t>
+  </si>
+  <si>
+    <t>Implement AI opponent logic</t>
+  </si>
+  <si>
+    <t>As a player, I want an AI opponent to make reasonable betting decisions.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>aiDecision()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method using rule-based logic (e.g., fold on weak hands &lt; 10% win probability, call/bet on strong hands &gt; 50%), updated per round. The AI’s actions (fold, call, raise) are displayed in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, confirmed by consistent AI behavior over multiple games.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-005</t>
+  </si>
+  <si>
+    <t>Create basic UI for Poker gameplay</t>
+  </si>
+  <si>
+    <t>As a player, I want a user interface to interact with the Poker game.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> implements a </t>
     </r>
     <r>
       <rPr>
@@ -1999,45 +2742,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> with a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Container</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> using a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>DecorationImage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> from </t>
+      <t> with a Viking plank-wood table background (</t>
     </r>
     <r>
       <rPr>
@@ -2056,55 +2761,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> (or a campfire-specific asset). The UI includes a dice cup (horn) with 5 rune-etched bone dice, a bid input field, and a challenge button, styled with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Theme.of(context).cardColor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(brown[900]) and runic text (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>bodyLarge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), verified by launching the screen.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-007-002</t>
-  </si>
-  <si>
-    <t>Implement dice rolling logic</t>
-  </si>
-  <si>
-    <t>As a player, I want to roll dice to start each turn.</t>
+      <t>), displaying player/AI cards, community cards, and buttons for deal, bet, call, fold. The UI is responsive, verified by launching on SM S928U1.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-006</t>
+  </si>
+  <si>
+    <t>Add betting and folding mechanics</t>
+  </si>
+  <si>
+    <t>As a player, I want to bet, call, or fold during the game.</t>
   </si>
   <si>
     <r>
@@ -2117,46 +2784,141 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>lib/games/liars_dice/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> includes a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>LiarDiceLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class with a method to roll 5 dice (random values 1-6), storing results privately. The screen updates to show the cup with an animation (e.g., shake), confirmed by a successful roll on tap.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-007-003</t>
-  </si>
-  <si>
-    <t>Enable user bidding</t>
-  </si>
-  <si>
-    <t>As a player, I want to place bids on the total number and face of dice.</t>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class tracks a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>pot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and player/AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>chips</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with methods for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>bet(amount)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>call()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>fold()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> includes buttons triggering these actions, updating the UI with chip counts and pot value, confirmed by successful bet/fold cycles.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-007</t>
+  </si>
+  <si>
+    <t>Determine and display game outcome</t>
+  </si>
+  <si>
+    <t>As a player, I want to know the winner after each round.</t>
   </si>
   <si>
     <r>
@@ -2169,36 +2931,36 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> supports a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>bid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> method accepting quantity and face (e.g., "5 fours"), and </t>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> class includes a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>evaluateHand()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> method to compare player and AI hands (e.g., high card, pair, flush) using a ranking system. The </t>
     </r>
     <r>
       <rPr>
@@ -2217,17 +2979,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> provides a text input or dropdown for bids. Users can submit a bid, updating the game state, verified by a valid bid being accepted.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-007-004</t>
-  </si>
-  <si>
-    <t>Implement AI bidding logic</t>
-  </si>
-  <si>
-    <t>As a player, I want an AI opponent to bid intelligently.</t>
+      <t> displays the winner (player or AI) with a northern lights animation, verified by correct outcomes after betting.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-008</t>
+  </si>
+  <si>
+    <t>Integrate Viking-themed assets and effects</t>
+  </si>
+  <si>
+    <t>As a player, I want a Viking aesthetic to enhance the Poker experience.</t>
   </si>
   <si>
     <r>
@@ -2240,46 +3002,46 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>LiarDiceLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class includes an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>aiBid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> method using probability-based logic (e.g., based on hidden dice totals), making a bid after the user. The screen displays the AI's bid, confirmed by a realistic AI turn following the user's bid.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-007-005</t>
-  </si>
-  <si>
-    <t>Add challenge mechanic</t>
-  </si>
-  <si>
-    <t>As a player, I want to challenge the AI's bid to test my bluffing skills.</t>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> uses rune-suited cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>VikingSuit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), a longship table, and gold coin animations for bets. Sound effects (e.g., coin clink) and haptic feedback on bets are included, confirmed by visual/audio/tactile feedback during play.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-005-009</t>
+  </si>
+  <si>
+    <t>Ensure single-player mode stability</t>
+  </si>
+  <si>
+    <t>As a developer, I want the single-player mode to be bug-free and performant.</t>
   </si>
   <si>
     <r>
@@ -2292,46 +3054,65 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> includes a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>challenge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> method that compares the user's and AI's dice totals. If the challenge succeeds (total matches or exceeds bid), the AI loses a die; otherwise, the user loses a die. The screen reveals all dice and updates the count, verified by a correct outcome after a challenge.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-007-006</t>
-  </si>
-  <si>
-    <t>Manage game state and win condition</t>
-  </si>
-  <si>
-    <t>As a player, I want the game to track progress and end when someone wins.</t>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> are tested with unit tests (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>test/games/poker/poker_logic_test.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and integration tests, achieving 100% coverage for deal, bet, and outcome logic. Performance targets 60 FPS, verified by profiling on SM S928U1.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-001</t>
+  </si>
+  <si>
+    <t>Set up multiplayer network infrastructure</t>
+  </si>
+  <si>
+    <t>As a developer, I want a robust network setup to enable Poker multiplayer over local WiFi.</t>
   </si>
   <si>
     <r>
@@ -2344,27 +3125,84 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>LiarDiceLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> tracks dice counts (5 per player initially) and ends when one reaches 0, declaring the last player standing the winner. The screen displays the current dice count and a win message (e.g., "Victory!" with a Viking horn sound), confirmed by a complete game round.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-007-007</t>
-  </si>
-  <si>
-    <t>Integrate with existing theme</t>
-  </si>
-  <si>
-    <t>As a designer, I want the Liar's Dice screen to match the app's Viking aesthetic.</t>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> implements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>multicast_dns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for device discovery and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>web_socket_channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> for real-time communication. A host device broadcasts availability, and clients join via a unique session ID generated with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, verified by successful connection logs on two devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-002</t>
+  </si>
+  <si>
+    <t>Implement host card dealing mechanism</t>
+  </si>
+  <si>
+    <t>As a host, I want to deal cards to all players to start a Poker game.</t>
   </si>
   <si>
     <r>
@@ -2377,103 +3215,46 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> uses </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Theme.of(context)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> for colors (e.g., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>cardColor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>textTheme.bodyLarge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) and the runic font (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>RuneFont</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). The UI includes Viking motifs (e.g., horn cup, rune dice), verified by visual consistency with the opening screen.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-001</t>
-  </si>
-  <si>
-    <t>Set up multiplayer networking infrastructure for Liar's Dice</t>
-  </si>
-  <si>
-    <t>As a developer, I want a robust networking setup to enable multiplayer Liar's Dice over local WiFi.</t>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> extends </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PokerLogic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to distribute 2 hole cards per player and 5 community cards via WebSocket. The host shuffles the deck and sends card data (e.g., JSON with suit/rank) to connected devices, confirmed by all players receiving identical card sets.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-003</t>
+  </si>
+  <si>
+    <t>Enable player betting and action synchronization</t>
+  </si>
+  <si>
+    <t>As a player, I want to place bets and take actions (fold, call, raise) that are reflected across all devices.</t>
   </si>
   <si>
     <r>
@@ -2486,6 +3267,25 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> includes buttons for betting actions, sending updates via WebSocket to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
       <t>lib/common/networking.dart</t>
     </r>
     <r>
@@ -2496,45 +3296,156 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> file initializes a WebSocket server using </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>web_socket_channel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> for the host and clients. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>multicast_dns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> discovers devices, and </t>
+      <t>. All devices display the current bet pool and player actions in real-time, verified by synchronized UI updates during a multi-device game.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-004</t>
+  </si>
+  <si>
+    <t>Manage turn passing with animation</t>
+  </si>
+  <si>
+    <t>As a player, I want to see whose turn it is with a visual cue to enhance the multiplayer experience.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/games/poker/screen.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> triggers a raven flight animation (using a custom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AnimationController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) when a turn passes, synced via WebSocket. The animation moves between player avatars (Viking helmets), confirmed by smooth transitions on all devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-005</t>
+  </si>
+  <si>
+    <t>Support verbal bluffing off-app</t>
+  </si>
+  <si>
+    <t>As a player, I want to use verbal communication for bluffing to add a social element without app modification.</t>
+  </si>
+  <si>
+    <t>The app design allows players to announce bluffs verbally during their turn, with no in-app text input required. Multiplayer sessions rely on off-app communication, verified by successful gameplay where bluffing impacts strategy without technical intervention.</t>
+  </si>
+  <si>
+    <t>REQ-006-006</t>
+  </si>
+  <si>
+    <t>Handle multi-device state consistency</t>
+  </si>
+  <si>
+    <t>As a player, I want the game state to remain consistent across all devices to ensure fair play.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> syncs game state (e.g., current player, pot, cards) using JSON serialization with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>json_annotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. State updates are broadcast on each action, confirmed by identical displays on all devices after a full round.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-007</t>
+  </si>
+  <si>
+    <t>Provide session creation and joining</t>
+  </si>
+  <si>
+    <t>As a host or client, I want an easy way to create or join a Poker game session.</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> generates a session ID (QR code or IP display) on the host device. Clients scan the QR or enter the IP using </t>
     </r>
     <r>
       <rPr>
@@ -2553,121 +3464,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>provides local IP addresses. A successful connection between at least two devices on the same WiFi is verified by a log message or UI indicator.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-002</t>
-  </si>
-  <si>
-    <t>Create a session ID and join mechanism</t>
-  </si>
-  <si>
-    <t>As a host, I want to create a unique session and allow others to join easily.</t>
-  </si>
-  <si>
-    <r>
-      <t>The host generates a unique session ID using </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> and broadcasts it via </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>multicast_dns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Clients join by scanning a QR code (generated with a package like </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>qr_flutter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) or entering the IP, confirmed by a joined player list in the UI on the host device.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-003</t>
-  </si>
-  <si>
-    <t>Synchronize dice rolls across devices</t>
-  </si>
-  <si>
-    <t>As a player, I want my dice rolls to be hidden and synced with others for fair play.</t>
-  </si>
-  <si>
-    <r>
-      <t>Each player rolls dice privately on their device, sending the roll count (not values) via WebSocket. The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/liars_dice/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> aggregates total dice, verified by matching counts across devices without revealing individual rolls.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-004</t>
-  </si>
-  <si>
-    <t>Implement turn-based bidding system</t>
-  </si>
-  <si>
-    <t>As a player, I want to take turns bidding on dice totals in a structured way.</t>
+      <t>, verified by a successful join message and game start on both devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-008</t>
+  </si>
+  <si>
+    <t>Ensure turn-based gameplay flow</t>
+  </si>
+  <si>
+    <t>As a player, I want turns to progress smoothly to maintain game pace in multiplayer.</t>
   </si>
   <si>
     <r>
@@ -2680,60 +3487,27 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>lib/games/liars_dice/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> manages turn order, passing via WebSocket when a player submits a bid (e.g., "5 fours"). The current player’s turn is highlighted with a raven animation, confirmed by sequential turn changes on multi-device play.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-005</t>
-  </si>
-  <si>
-    <t>Add bluff challenge mechanic</t>
-  </si>
-  <si>
-    <t>As a player, I want to challenge others' bids to add strategy.</t>
-  </si>
-  <si>
-    <r>
-      <t>Players can challenge a bid using a UI button, triggering </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/liars_dice/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> to reveal all dice via WebSocket. The challenger wins if the bid is false; the bidder loses a die otherwise, verified by updated dice counts and a thunderclap sound effect.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-006</t>
-  </si>
-  <si>
-    <t>Handle game state and win condition</t>
-  </si>
-  <si>
-    <t>As a player, I want the game to end when someone wins and reflect the outcome.</t>
+      <t>lib/games/poker/logic.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> manages turn order (e.g., clockwise after the dealer), synced via WebSocket. Each player’s turn is highlighted with a Viking shield icon, confirmed by orderly turn progression across devices.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-009</t>
+  </si>
+  <si>
+    <t>Handle disconnection and reconnection</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to handle temporary disconnections gracefully.</t>
   </si>
   <si>
     <r>
@@ -2746,51 +3520,27 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>lib/games/liars_dice/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> tracks dice loss; the last player with dice wins. The game state (dice counts, turn) syncs across devices, and a win screen with Viking horn sound is displayed, confirmed by a multiplayer game ending correctly.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-007</t>
-  </si>
-  <si>
-    <t>Integrate verbal bidding off-app</t>
-  </si>
-  <si>
-    <t>As a player, I want to announce bids verbally for an authentic experience.</t>
-  </si>
-  <si>
-    <t>The app prompts players to speak bids aloud (e.g., via a text hint), with WebSocket syncing only the challenge action. Verbal interaction is verified by successful gameplay without app-enforced speech recognition.</t>
-  </si>
-  <si>
-    <t>REQ-008-008</t>
-  </si>
-  <si>
-    <t>Add visual feedback for turn passing</t>
-  </si>
-  <si>
-    <t>As a player, I want to see when my turn changes to another device.</t>
-  </si>
-  <si>
-    <t>A raven flight animation transitions between devices during turn changes, synced via WebSocket, verified by visible animation on all connected devices.</t>
-  </si>
-  <si>
-    <t>REQ-008-009</t>
-  </si>
-  <si>
-    <t>Ensure multi-device synchronization stability</t>
-  </si>
-  <si>
-    <t>As a user, I want a smooth multiplayer experience without desyncs.</t>
+      <t>lib/common/networking.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> implements a reconnection mechanism with WebSocket, resyncing the last known state. Disconnected players can rejoin with the session ID, verified by resuming play without data loss after a simulated disconnect.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-006-010</t>
+  </si>
+  <si>
+    <t>Validate multiplayer game end conditions</t>
+  </si>
+  <si>
+    <t>As a player, I want the game to end properly when a winner is determined.</t>
   </si>
   <si>
     <r>
@@ -2803,51 +3553,6 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>lib/common/networking.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> handles WebSocket reconnection and state reconciliation. A test with three devices maintains consistent dice counts and turn order, confirmed by no desync errors over a 10-minute session.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-008-010</t>
-  </si>
-  <si>
-    <t>Test multiplayer mode on multiple devices</t>
-  </si>
-  <si>
-    <t>As a tester, I want to verify multiplayer functionality across devices.</t>
-  </si>
-  <si>
-    <t>The app is tested with 2–4 devices on the same WiFi, covering connection, turn passing, bidding, and challenges. All actions sync correctly, and no crashes occur, verified by a test report.</t>
-  </si>
-  <si>
-    <t>REQ-005-001</t>
-  </si>
-  <si>
-    <t>Define Poker game logic structure</t>
-  </si>
-  <si>
-    <t>As a developer, I want a structured logic class for Poker to manage game state and rules.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
       <t>lib/games/poker/logic.dart</t>
     </r>
     <r>
@@ -2858,173 +3563,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> file contains a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>VikingSuit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> (axes, shields, ravens, ships) and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> (two through ace) enums, a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Card</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class, and a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>deck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> list initialized with 52 cards. The deck is shuffled on instantiation, verified by logging the deck size (52) and random order.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-002</t>
-  </si>
-  <si>
-    <t>Implement basic card dealing for single-player</t>
-  </si>
-  <si>
-    <t>As a player, I want to be dealt cards to start a Poker game against an AI.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class includes a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>dealCards()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> method that distributes 2 hole cards to the player and AI, returning a map (e.g., </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>{player: [Card], ai: [Card]}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>). The </t>
+      <t> detects win conditions (e.g., all-in, fold-out) and broadcasts the result via WebSocket. The </t>
     </r>
     <r>
       <rPr>
@@ -3043,1042 +3582,74 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> displays these cards on a Viking-themed table, confirmed by seeing 2 cards each on screen after a deal button press.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-003</t>
-  </si>
-  <si>
-    <t>Add community card dealing</t>
-  </si>
-  <si>
-    <t>As a player, I want community cards to be dealt during the game for hand evaluation.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class includes a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>dealCommunityCards()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> method that deals 3 flop cards, 1 turn card, and 1 river card in sequence, updating the game state. The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> updates the UI to show 5 community cards after simulated betting rounds, verified by visual progression.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-004</t>
-  </si>
-  <si>
-    <t>Implement AI opponent logic</t>
-  </si>
-  <si>
-    <t>As a player, I want an AI opponent to make reasonable betting decisions.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class includes an </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>aiDecision()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> method using rule-based logic (e.g., fold on weak hands &lt; 10% win probability, call/bet on strong hands &gt; 50%), updated per round. The AI’s actions (fold, call, raise) are displayed in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, confirmed by consistent AI behavior over multiple games.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-005</t>
-  </si>
-  <si>
-    <t>Create basic UI for Poker gameplay</t>
-  </si>
-  <si>
-    <t>As a player, I want a user interface to interact with the Poker game.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/poker/screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> implements a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>Scaffold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> with a Viking plank-wood table background (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>assets/common/longship_background.png</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), displaying player/AI cards, community cards, and buttons for deal, bet, call, fold. The UI is responsive, verified by launching on SM S928U1.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-006</t>
-  </si>
-  <si>
-    <t>Add betting and folding mechanics</t>
-  </si>
-  <si>
-    <t>As a player, I want to bet, call, or fold during the game.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class tracks a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>pot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> and player/AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>chips</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, with methods for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>bet(amount)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>call()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>fold()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> includes buttons triggering these actions, updating the UI with chip counts and pot value, confirmed by successful bet/fold cycles.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-007</t>
-  </si>
-  <si>
-    <t>Determine and display game outcome</t>
-  </si>
-  <si>
-    <t>As a player, I want to know the winner after each round.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> class includes a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>evaluateHand()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> method to compare player and AI hands (e.g., high card, pair, flush) using a ranking system. The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> displays the winner (player or AI) with a northern lights animation, verified by correct outcomes after betting.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-008</t>
-  </si>
-  <si>
-    <t>Integrate Viking-themed assets and effects</t>
-  </si>
-  <si>
-    <t>As a player, I want a Viking aesthetic to enhance the Poker experience.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> uses rune-suited cards (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>VikingSuit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>), a longship table, and gold coin animations for bets. Sound effects (e.g., coin clink) and haptic feedback on bets are included, confirmed by visual/audio/tactile feedback during play.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-005-009</t>
-  </si>
-  <si>
-    <t>Ensure single-player mode stability</t>
-  </si>
-  <si>
-    <t>As a developer, I want the single-player mode to be bug-free and performant.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> are tested with unit tests (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>test/games/poker/poker_logic_test.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) and integration tests, achieving 100% coverage for deal, bet, and outcome logic. Performance targets 60 FPS, verified by profiling on SM S928U1.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-001</t>
-  </si>
-  <si>
-    <t>Set up multiplayer network infrastructure</t>
-  </si>
-  <si>
-    <t>As a developer, I want a robust network setup to enable Poker multiplayer over local WiFi.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/common/networking.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> implements </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>multicast_dns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for device discovery and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>web_socket_channel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> for real-time communication. A host device broadcasts availability, and clients join via a unique session ID generated with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, verified by successful connection logs on two devices.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-002</t>
-  </si>
-  <si>
-    <t>Implement host card dealing mechanism</t>
-  </si>
-  <si>
-    <t>As a host, I want to deal cards to all players to start a Poker game.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/poker/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> extends </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>PokerLogic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> to distribute 2 hole cards per player and 5 community cards via WebSocket. The host shuffles the deck and sends card data (e.g., JSON with suit/rank) to connected devices, confirmed by all players receiving identical card sets.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-003</t>
-  </si>
-  <si>
-    <t>Enable player betting and action synchronization</t>
-  </si>
-  <si>
-    <t>As a player, I want to place bets and take actions (fold, call, raise) that are reflected across all devices.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/poker/screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> includes buttons for betting actions, sending updates via WebSocket to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/common/networking.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. All devices display the current bet pool and player actions in real-time, verified by synchronized UI updates during a multi-device game.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-004</t>
-  </si>
-  <si>
-    <t>Manage turn passing with animation</t>
-  </si>
-  <si>
-    <t>As a player, I want to see whose turn it is with a visual cue to enhance the multiplayer experience.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/poker/screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> triggers a raven flight animation (using a custom </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>AnimationController</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) when a turn passes, synced via WebSocket. The animation moves between player avatars (Viking helmets), confirmed by smooth transitions on all devices.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-005</t>
-  </si>
-  <si>
-    <t>Support verbal bluffing off-app</t>
-  </si>
-  <si>
-    <t>As a player, I want to use verbal communication for bluffing to add a social element without app modification.</t>
-  </si>
-  <si>
-    <t>The app design allows players to announce bluffs verbally during their turn, with no in-app text input required. Multiplayer sessions rely on off-app communication, verified by successful gameplay where bluffing impacts strategy without technical intervention.</t>
-  </si>
-  <si>
-    <t>REQ-006-006</t>
-  </si>
-  <si>
-    <t>Handle multi-device state consistency</t>
-  </si>
-  <si>
-    <t>As a player, I want the game state to remain consistent across all devices to ensure fair play.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/common/networking.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> syncs game state (e.g., current player, pot, cards) using JSON serialization with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>json_annotation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. State updates are broadcast on each action, confirmed by identical displays on all devices after a full round.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-007</t>
-  </si>
-  <si>
-    <t>Provide session creation and joining</t>
-  </si>
-  <si>
-    <t>As a host or client, I want an easy way to create or join a Poker game session.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/common/networking.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> generates a session ID (QR code or IP display) on the host device. Clients scan the QR or enter the IP using </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>network_info_plus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, verified by a successful join message and game start on both devices.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-008</t>
-  </si>
-  <si>
-    <t>Ensure turn-based gameplay flow</t>
-  </si>
-  <si>
-    <t>As a player, I want turns to progress smoothly to maintain game pace in multiplayer.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/poker/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> manages turn order (e.g., clockwise after the dealer), synced via WebSocket. Each player’s turn is highlighted with a Viking shield icon, confirmed by orderly turn progression across devices.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-009</t>
-  </si>
-  <si>
-    <t>Handle disconnection and reconnection</t>
-  </si>
-  <si>
-    <t>As a player, I want the game to handle temporary disconnections gracefully.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/common/networking.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> implements a reconnection mechanism with WebSocket, resyncing the last known state. Disconnected players can rejoin with the session ID, verified by resuming play without data loss after a simulated disconnect.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ-006-010</t>
-  </si>
-  <si>
-    <t>Validate multiplayer game end conditions</t>
-  </si>
-  <si>
-    <t>As a player, I want the game to end properly when a winner is determined.</t>
-  </si>
-  <si>
-    <r>
-      <t>The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/poker/logic.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> detects win conditions (e.g., all-in, fold-out) and broadcasts the result via WebSocket. The </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>lib/games/poker/screen.dart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t> displays a win animation (northern lights), confirmed by a consistent end state on all devices.</t>
     </r>
+  </si>
+  <si>
+    <t>detailed implementation</t>
+  </si>
+  <si>
+    <t>Display initial UI for determining starter</t>
+  </si>
+  <si>
+    <t>In lib/games/liars_dice/screen.dart, use Riverpod's StateNotifierProvider to manage game state in a GameStateNotifier class defined in lib/games/liars_dice/logic.dart. The state includes properties like phase: 'determine_starter', playerDice: List&lt;int&gt;.empty(), aiDice: List&lt;int&gt;.empty(), statusMessage: 'Roll dice to determine who start', rollButtonEnabled: true. In the ConsumerWidget build method, if phase == 'determine_starter', render a Column with two Rows: one for Player's dice (5 DiceWidget from lib/common/ui_helpers.dart, styled with Viking bone textures from assets/games/liars_dice/dice_face_{1-6}.png, using Image.asset with BoxFit.contain), similarly for AI's dice below it, both visible. Use Theme.of(context).colorScheme.surface for background with overlay weathered wood texture. Display statusMessage with Theme.of(context).textTheme.bodyLarge.copyWith(fontFamily: 'NotoSansRunic', color: Theme.of(context).colorScheme.primary). Add ElevatedButton(styled with Theme.of(context).elevatedButtonTheme, icon: Icon(Icons.casino, color: Theme.of(context).colorScheme.secondary), label: Text('Roll Dice', style: Theme.of(context).textTheme.labelLarge), onPressed: if rollButtonEnabled, call notifier.rollToDetermineStarter()).&lt;/int&gt;&lt;/int&gt;</t>
+  </si>
+  <si>
+    <t>As a player, I want to see both sets of dice before rolling to determine the starter.</t>
+  </si>
+  <si>
+    <t>Roll dice to determine starter</t>
+  </si>
+  <si>
+    <t>In GameStateNotifier.rollToDetermineStarter(), disable rollButton, simulate rolling animation by updating state with random dice values every 200ms for 2-3 seconds using Timer.periodic, then stop on final random values (List&lt;int&gt; with 5 values 1-6 using math.Random). Compute ranks using calculateHandRankAndFace(dice) from lib/games/liars_dice/helpers.dart (define function to evaluate poker hand rank 1-8 and face value). Compare playerRank/playerFace vs aiRank/aiFace using isHigher(rank1, face1, rank2, face2). Set startingTurn to 'player' or 'ai' based on higher, phase to 'gameplay', currentTurn to startingTurn, currentDice to [], currentBid to null, statusMessage to '${startingTurn.capitalize()} starts the game', playerDice and aiDice cleared.&lt;/int&gt;</t>
+  </si>
+  <si>
+    <t>As a player, I want a fair and visual roll to decide who starts.</t>
+  </si>
+  <si>
+    <t>Display Player's turn UI for rolling</t>
+  </si>
+  <si>
+    <t>If currentTurn == 'player' and phase == 'gameplay', show currentDice (visible to player, List of 5 DiceWidget, initially empty/placeholders if first turn, else transferred from previous). Allow tapping each DiceWidget to toggle hold state (state.holds List&lt;bool&gt;, green border for hold, gray for roll, update via notifier.toggleHold(index)). Status message "Roll Dice", roll button enabled. Use GestureDetector on each dice for toggle. If first turn, all gray (no hold). Background stormy sea with longship motif from Theme.of(context).&lt;/bool&gt;</t>
+  </si>
+  <si>
+    <t>As a player, I want to prepare and roll dice on my turn.</t>
+  </si>
+  <si>
+    <t>Toggle hold for player's dice</t>
+  </si>
+  <si>
+    <t>In DiceWidget, use StatefulWidget with hold bool, onTap: notifier.toggleHold(index), update color: hold ? Colors.green.withOpacity(0.5) : Colors.grey.withOpacity(0.5), border accordingly. Notifier updates holds list in state.</t>
+  </si>
+  <si>
+    <t>As a player, I want to select which dice to hold or re-roll.</t>
+  </si>
+  <si>
+    <t>Roll dice for player</t>
+  </si>
+  <si>
+    <t>On roll button press, if enabled, animate rolling for non-held (gray) dice, generate new random 1-6 for those positions, update currentDice, disable roll button, enable dropdowns for rank (DropdownButton&lt;int&gt; 1-9, items from handRanks.keys mapped to values) and face (1-6), status "Select Rank and Face". Use Future.delayed for animation simulation. Validate declare must be higher than currentBid if exists, but enable anyway (validate on declare).&lt;/int&gt;</t>
+  </si>
+  <si>
+    <t>As a player, I want to roll non-held dice and proceed to declare.</t>
+  </si>
+  <si>
+    <t>Select rank and face for declare</t>
+  </si>
+  <si>
+    <t>Use two DropdownButton in Row, styled with Theme.of(context).inputDecorationTheme, onChanged: notifier.setSelectedRank(value), notifier.setSelectedFace(value). Declare button disabled until both selected != null.</t>
+  </si>
+  <si>
+    <t>As a player, I want to choose my declaration after rolling.</t>
+  </si>
+  <si>
+    <t>Declare bid for player</t>
+  </si>
+  <si>
+    <t>On declare button press, validate if selectedRank/Face &gt; currentBid (using isHigher), if not show snackbar error with Theme.of(context).colorScheme.error. If yes or no currentBid, set currentBid to {rank: selectedRank, face: selectedFace}, reset selected to null, dropdowns disabled, set currentTurn to 'ai', status "AI's turn".</t>
+  </si>
+  <si>
+    <t>As a player, I want to submit my declaration if valid.</t>
   </si>
 </sst>
 </file>
@@ -4815,7 +4386,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4869,7 +4440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
@@ -4897,7 +4468,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>110</v>
       </c>
@@ -4925,7 +4496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>118</v>
       </c>
@@ -4939,7 +4510,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>122</v>
       </c>
@@ -4953,7 +4524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>126</v>
       </c>
@@ -4981,7 +4552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
@@ -5065,7 +4636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>158</v>
       </c>
@@ -5160,128 +4731,128 @@
     </row>
     <row r="2" spans="1:4" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5294,7 +4865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50965960-9350-D746-A35F-2394025ED0B5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
@@ -5323,142 +4894,142 @@
     </row>
     <row r="2" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="52" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5471,22 +5042,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4935D0-3D2F-2B47-BCB3-A59896FEFE42}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="81.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="67.6640625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>91</v>
@@ -5495,105 +5066,105 @@
         <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="88" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5635,142 +5206,142 @@
     </row>
     <row r="2" spans="1:4" ht="70" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
